--- a/excel/import_data_produk.xlsx
+++ b/excel/import_data_produk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="5355"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>nama_produk</t>
   </si>
@@ -29,19 +29,13 @@
     <t>kode_barang</t>
   </si>
   <si>
-    <t>Surya</t>
+    <t>Indomie</t>
   </si>
   <si>
-    <t>Rokok</t>
+    <t>Mie</t>
   </si>
   <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Faster</t>
-  </si>
-  <si>
-    <t>Bolpoint</t>
+    <t>Sedap</t>
   </si>
 </sst>
 </file>
@@ -383,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,14 +407,6 @@
       </c>
       <c r="B3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
